--- a/6Project/excel_tables.xlsx
+++ b/6Project/excel_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/study/6Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F67DCC-0019-594A-A13A-17CD54258A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EF0CD-D480-F94E-9CC3-EA2E43B1A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{741DF1E5-685D-5A4A-8039-D7854CFEFA6F}"/>
   </bookViews>
@@ -1121,40 +1121,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.71760000000000002</c:v>
+                  <c:v>0.72609999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73260000000000003</c:v>
+                  <c:v>0.73609999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74529999999999996</c:v>
+                  <c:v>0.74550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74929999999999997</c:v>
+                  <c:v>0.75560000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74970000000000003</c:v>
+                  <c:v>0.75419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75219999999999998</c:v>
+                  <c:v>0.75629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75509999999999999</c:v>
+                  <c:v>0.7571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75560000000000005</c:v>
+                  <c:v>0.75480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.75770000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75670000000000004</c:v>
+                  <c:v>0.75849999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75690000000000002</c:v>
+                  <c:v>0.75619999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75629999999999997</c:v>
+                  <c:v>0.75929999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27554AF6-2705-724E-895D-EA0392A6AD44}">
   <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5634,40 +5634,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.71760000000000002</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="C3" s="4">
-        <v>0.73260000000000003</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="D3" s="4">
-        <v>0.74529999999999996</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="E3" s="4">
-        <v>0.74929999999999997</v>
+        <v>0.75560000000000005</v>
       </c>
       <c r="F3" s="4">
-        <v>0.74970000000000003</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="G3" s="4">
-        <v>0.75219999999999998</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="H3" s="4">
-        <v>0.75509999999999999</v>
+        <v>0.7571</v>
       </c>
       <c r="I3" s="4">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="J3" s="5">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.75770000000000004</v>
       </c>
       <c r="K3" s="4">
-        <v>0.75670000000000004</v>
+        <v>0.75849999999999995</v>
       </c>
       <c r="L3" s="4">
-        <v>0.75690000000000002</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.75629999999999997</v>
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.75929999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="29" thickBot="1">

--- a/6Project/excel_tables.xlsx
+++ b/6Project/excel_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Desktop/📚/🧑‍💻/github/study/6Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EF0CD-D480-F94E-9CC3-EA2E43B1A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52084CA-E3E5-BA47-ABAD-C4E9C1B32FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{741DF1E5-685D-5A4A-8039-D7854CFEFA6F}"/>
   </bookViews>
@@ -1035,45 +1035,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.73950000000000005</c:v>
+                  <c:v>0.70120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75580000000000003</c:v>
+                  <c:v>0.71989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75900000000000001</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7601</c:v>
+                  <c:v>0.74580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76329999999999998</c:v>
+                  <c:v>0.75790000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76690000000000003</c:v>
+                  <c:v>0.76849999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77049999999999996</c:v>
+                  <c:v>0.77359999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76670000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76880000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.77090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76829999999999998</c:v>
+                  <c:v>0.77529999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,45 +1104,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.72609999999999997</c:v>
+                  <c:v>0.63539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73609999999999998</c:v>
+                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74550000000000005</c:v>
+                  <c:v>0.69040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75560000000000005</c:v>
+                  <c:v>0.71089999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75419999999999998</c:v>
+                  <c:v>0.7288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75629999999999997</c:v>
+                  <c:v>0.74709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7571</c:v>
+                  <c:v>0.75819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75770000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75849999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75929999999999997</c:v>
+                  <c:v>0.7621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,45 +1173,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>0.69730000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74780000000000002</c:v>
+                  <c:v>0.71330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75529999999999997</c:v>
+                  <c:v>0.73180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75939999999999996</c:v>
+                  <c:v>0.74529999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75860000000000005</c:v>
+                  <c:v>0.75549999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76200000000000001</c:v>
+                  <c:v>0.76339999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76359999999999995</c:v>
+                  <c:v>0.76900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7661</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76690000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>0.77380000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1287,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.79"/>
-          <c:min val="0.71000000000000008"/>
+          <c:min val="0.63000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5542,7 +5506,7 @@
   <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5593,123 +5557,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.73950000000000005</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="C2" s="4">
-        <v>0.75580000000000003</v>
+        <v>0.71989999999999998</v>
       </c>
       <c r="D2" s="4">
-        <v>0.75900000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="E2" s="4">
-        <v>0.7601</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="F2" s="4">
-        <v>0.76329999999999998</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="G2" s="4">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.77049999999999996</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.76719999999999999</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.76880000000000004</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.76829999999999998</v>
-      </c>
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="57" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.72609999999999997</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="C3" s="4">
-        <v>0.73609999999999998</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D3" s="4">
-        <v>0.74550000000000005</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>0.75560000000000005</v>
+        <v>0.71089999999999998</v>
       </c>
       <c r="F3" s="4">
-        <v>0.75419999999999998</v>
+        <v>0.7288</v>
       </c>
       <c r="G3" s="4">
-        <v>0.75629999999999997</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="H3" s="4">
-        <v>0.7571</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.75480000000000003</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.75770000000000004</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.75849999999999995</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.75929999999999997</v>
-      </c>
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.7621</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:21" ht="29" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.73399999999999999</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="C4" s="4">
-        <v>0.74780000000000002</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="D4" s="4">
-        <v>0.75529999999999997</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="E4" s="4">
-        <v>0.75939999999999996</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="F4" s="4">
-        <v>0.75860000000000005</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="G4" s="4">
-        <v>0.76200000000000001</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>0.76359999999999995</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.7661</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.76619999999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.76690000000000003</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.76400000000000001</v>
-      </c>
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
       <c r="P4" t="s">
         <v>249</v>
       </c>
